--- a/data/case1/15/Qlm1_3.xlsx
+++ b/data/case1/15/Qlm1_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.12777022264996418</v>
+        <v>-0.21540988069379097</v>
       </c>
       <c r="B1" s="0">
-        <v>0.12724747297632888</v>
+        <v>0.21492789778510257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.1123399696624654</v>
+        <v>-0.17310866161972083</v>
       </c>
       <c r="B2" s="0">
-        <v>0.11104247405108758</v>
+        <v>0.17146933227789507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.061327136334904608</v>
+        <v>-0.12175304177796242</v>
       </c>
       <c r="B3" s="0">
-        <v>0.060983366467681321</v>
+        <v>0.12124745233834311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.052983366558565947</v>
+        <v>-0.11324745246233547</v>
       </c>
       <c r="B4" s="0">
-        <v>0.052682395874322552</v>
+        <v>0.11279250109313566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.049682395919718125</v>
+        <v>-0.10979250116653638</v>
       </c>
       <c r="B5" s="0">
-        <v>0.048673463746093937</v>
+        <v>0.10824233871341349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.022276245268514572</v>
+        <v>-0.0097628029970806551</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.022543457093487262</v>
+        <v>0.0097275166201562513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.032543456974530649</v>
+        <v>0.00027248320438699736</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.032611039634844463</v>
+        <v>-0.00027280733570611559</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.042611039520099148</v>
+        <v>0.010272807160633501</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.042768946166589661</v>
+        <v>-0.01028510997936305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.044768946137566434</v>
+        <v>0.012285109901711166</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.044915317425184398</v>
+        <v>-0.012308800432854206</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.046915317405167301</v>
+        <v>0.014308800358824314</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.046925312147635623</v>
+        <v>-0.014308882379561183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.049925312118562104</v>
+        <v>-0.017862608351359555</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.049948108750744957</v>
+        <v>0.017857487788940141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020860681091412925</v>
+        <v>-0.014357487881217601</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020668206981174997</v>
+        <v>0.014321311225079736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017168207017567383</v>
+        <v>-0.010821311320802884</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017080846218616053</v>
+        <v>0.010811571508273055</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090808462995077832</v>
+        <v>-0.043516647216043758</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090526092718405948</v>
+        <v>0.043352544702243812</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080526092856905152</v>
+        <v>-0.042352544774529655</v>
       </c>
       <c r="B15" s="0">
-        <v>0.008034390552656312</v>
+        <v>0.042207247127977965</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060343905768425188</v>
+        <v>-0.0060342281310097334</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032681539610167</v>
+        <v>0.006003052153217503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032681789439195</v>
+        <v>-0.004003052245329819</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999555293542</v>
+        <v>0.0039999998838782247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.02169234785263896</v>
+        <v>-0.016100204915328931</v>
       </c>
       <c r="B18" s="0">
-        <v>0.021589686218682402</v>
+        <v>0.01609070496360232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.016659748681278064</v>
+        <v>-0.012090705014023762</v>
       </c>
       <c r="B19" s="0">
-        <v>0.016164648753094646</v>
+        <v>0.012015717679518811</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080164461215428418</v>
+        <v>-0.0080157177337145669</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057291809882969</v>
+        <v>0.0080055663443410197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005729227267274</v>
+        <v>-0.0040055663991171997</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999534954256</v>
+        <v>0.0039999999447157819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045715337765164676</v>
+        <v>-0.045716290568046603</v>
       </c>
       <c r="B22" s="0">
-        <v>0.04550135599777505</v>
+        <v>0.045502233234989475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040501356059629678</v>
+        <v>-0.040502233319133829</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099373605578137</v>
+        <v>0.040099453929434148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099373817094701</v>
+        <v>-0.020099454196877531</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999785654587</v>
+        <v>0.019999999728751661</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.068949709057838149</v>
+        <v>-0.0972784067426673</v>
       </c>
       <c r="B25" s="0">
-        <v>0.068899530275594145</v>
+        <v>0.097154209896215704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.066399530324828149</v>
+        <v>-0.09465420998753693</v>
       </c>
       <c r="B26" s="0">
-        <v>0.066336708103627018</v>
+        <v>0.094492768232800728</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.063836708155435851</v>
+        <v>-0.091992768329917762</v>
       </c>
       <c r="B27" s="0">
-        <v>0.063470130516476431</v>
+        <v>0.09102656806277265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.061470130576961601</v>
+        <v>-0.089026568177160037</v>
       </c>
       <c r="B28" s="0">
-        <v>0.061229544857049234</v>
+        <v>0.088365328556741396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.054229544974799815</v>
+        <v>-0.081365328746876742</v>
       </c>
       <c r="B29" s="0">
-        <v>0.054168669049150076</v>
+        <v>0.081174340354320584</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021168998187896193</v>
+        <v>-0.021174341178350264</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022128075798285</v>
+        <v>0.021022018130464115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022128201691686</v>
+        <v>-0.014022018334626907</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000887563920372</v>
+        <v>0.014000627306115732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008877192594383</v>
+        <v>-0.0040006275461781371</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999025663868</v>
+        <v>0.0039999998305439988</v>
       </c>
     </row>
   </sheetData>
